--- a/data/trans_bre/P16B07-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B07-Clase-trans_bre.xlsx
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 0,0</t>
+          <t>-23,23; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 0,0</t>
+          <t>-23,23; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,94</t>
+          <t>0,0; 32,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 0,0</t>
+          <t>-20,93; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 0,0</t>
+          <t>-34,88; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,85</t>
+          <t>0,0; 47,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 0,0</t>
+          <t>-20,93; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 0,0</t>
+          <t>-34,88; 0,0</t>
         </is>
       </c>
     </row>
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 33,16</t>
+          <t>-4,41; 31,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 0,0</t>
+          <t>-7,36; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 49,57</t>
+          <t>-4,41; 48,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 0,0</t>
+          <t>-7,36; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -1,34</t>
+          <t>-12,22; -1,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 0,0</t>
+          <t>-7,0; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -1,34</t>
+          <t>-12,22; -1,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 0,0</t>
+          <t>-7,0; 0,0</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 5,86</t>
+          <t>-3,17; 5,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 0,0</t>
+          <t>-2,73; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 6,37</t>
+          <t>-3,2; 6,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 0,0</t>
+          <t>-2,73; 0,0</t>
         </is>
       </c>
     </row>
